--- a/Мебель в аморфную квартиру.xlsx
+++ b/Мебель в аморфную квартиру.xlsx
@@ -235,13 +235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,10 +265,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
